--- a/data/cancer_type_metadata.xlsx
+++ b/data/cancer_type_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.n.zhou/Documents/GitHub/ts_machine_learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376E9F49-1935-ED42-B814-F667CFFAAD40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09372A2E-748D-9744-8EAD-ACF36F4412F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="14820" windowHeight="15660" xr2:uid="{4E56A99A-B338-1D4D-B1AD-6C51688C7EF2}"/>
+    <workbookView xWindow="10680" yWindow="460" windowWidth="18120" windowHeight="15660" xr2:uid="{4E56A99A-B338-1D4D-B1AD-6C51688C7EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125A4810-82B6-B24C-8E06-477A7541C539}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
